--- a/Data/CDRBulkIssuance.xlsx
+++ b/Data/CDRBulkIssuance.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Transaction Number</t>
   </si>
   <si>
     <t>FT23168018ZHTFND</t>
+  </si>
+  <si>
+    <t>FT2325014S6DYDW5</t>
   </si>
 </sst>
 </file>
@@ -62,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -78,6 +81,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CDRBulkIssuance.xlsx
+++ b/Data/CDRBulkIssuance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t>FT2325014S6DYDW5</t>
+  </si>
+  <si>
+    <t>FT232500V3CNL7YV</t>
+  </si>
+  <si>
+    <t>FT232500TL057FVV</t>
   </si>
 </sst>
 </file>
@@ -65,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -86,6 +92,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CDRBulkIssuance.xlsx
+++ b/Data/CDRBulkIssuance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -27,6 +27,15 @@
   </si>
   <si>
     <t>FT232500TL057FVV</t>
+  </si>
+  <si>
+    <t>FT232500DKJ9M3LJ</t>
+  </si>
+  <si>
+    <t>FT232500DR4M2YS7</t>
+  </si>
+  <si>
+    <t>FT232500DXZ685YD</t>
   </si>
 </sst>
 </file>
@@ -71,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,6 +111,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CDRBulkIssuance.xlsx
+++ b/Data/CDRBulkIssuance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>FT232500DXZ685YD</t>
+  </si>
+  <si>
+    <t>FT2325009V3R2J01</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,6 +129,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CDRBulkIssuance.xlsx
+++ b/Data/CDRBulkIssuance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>FT2325009V3R2J01</t>
+  </si>
+  <si>
+    <t>FT232500HRM968PY</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -134,6 +137,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
